--- a/matchid_data.xlsx
+++ b/matchid_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="308">
   <si>
     <t>tier</t>
   </si>
@@ -220,754 +220,724 @@
     <t>CFbEyz3fMIYwR8t9htV_iKMT0OZKNK6gw0KWLeTajCG1aw6yQzHdLJ8f6CAEN6C2YHGJZyRYoBma0Q</t>
   </si>
   <si>
-    <t>KR_6626090481</t>
-  </si>
-  <si>
-    <t>KR_6655383970</t>
-  </si>
-  <si>
-    <t>KR_6651583984</t>
+    <t>KR_6623745063</t>
+  </si>
+  <si>
+    <t>KR_6663860934</t>
+  </si>
+  <si>
+    <t>KR_6659181463</t>
+  </si>
+  <si>
+    <t>KR_6544411741</t>
+  </si>
+  <si>
+    <t>KR_6606714105</t>
+  </si>
+  <si>
+    <t>KR_6679804541</t>
+  </si>
+  <si>
+    <t>KR_6561935466</t>
+  </si>
+  <si>
+    <t>KR_6568600638</t>
+  </si>
+  <si>
+    <t>KR_6651306856</t>
+  </si>
+  <si>
+    <t>KR_6613189683</t>
+  </si>
+  <si>
+    <t>KR_6292117282</t>
+  </si>
+  <si>
+    <t>KR_6645764058</t>
+  </si>
+  <si>
+    <t>KR_6613148814</t>
+  </si>
+  <si>
+    <t>KR_6579373584</t>
+  </si>
+  <si>
+    <t>KR_6627203106</t>
+  </si>
+  <si>
+    <t>KR_6663189684</t>
+  </si>
+  <si>
+    <t>KR_6586112005</t>
+  </si>
+  <si>
+    <t>KR_6590547167</t>
+  </si>
+  <si>
+    <t>KR_6646551896</t>
+  </si>
+  <si>
+    <t>KR_6530971094</t>
+  </si>
+  <si>
+    <t>KR_6612178600</t>
+  </si>
+  <si>
+    <t>KR_6655663405</t>
+  </si>
+  <si>
+    <t>KR_6621620820</t>
+  </si>
+  <si>
+    <t>KR_6650763917</t>
+  </si>
+  <si>
+    <t>KR_6623836624</t>
+  </si>
+  <si>
+    <t>KR_6663918544</t>
+  </si>
+  <si>
+    <t>KR_6659210922</t>
+  </si>
+  <si>
+    <t>KR_6549657642</t>
+  </si>
+  <si>
+    <t>KR_6606740799</t>
+  </si>
+  <si>
+    <t>KR_6680129404</t>
+  </si>
+  <si>
+    <t>KR_6562474831</t>
+  </si>
+  <si>
+    <t>KR_6568665217</t>
+  </si>
+  <si>
+    <t>KR_6651359462</t>
+  </si>
+  <si>
+    <t>KR_6613199629</t>
+  </si>
+  <si>
+    <t>KR_6292127231</t>
+  </si>
+  <si>
+    <t>KR_6645843937</t>
+  </si>
+  <si>
+    <t>KR_6613173509</t>
+  </si>
+  <si>
+    <t>KR_6579834631</t>
+  </si>
+  <si>
+    <t>KR_6627327887</t>
+  </si>
+  <si>
+    <t>KR_6664408072</t>
+  </si>
+  <si>
+    <t>KR_6587787460</t>
+  </si>
+  <si>
+    <t>KR_6590603162</t>
+  </si>
+  <si>
+    <t>KR_6647113778</t>
+  </si>
+  <si>
+    <t>KR_6531259868</t>
+  </si>
+  <si>
+    <t>KR_6612277661</t>
+  </si>
+  <si>
+    <t>KR_6657947807</t>
+  </si>
+  <si>
+    <t>KR_6621732910</t>
+  </si>
+  <si>
+    <t>KR_6652443964</t>
+  </si>
+  <si>
+    <t>KR_6623904704</t>
+  </si>
+  <si>
+    <t>KR_6663968631</t>
+  </si>
+  <si>
+    <t>KR_6659242994</t>
+  </si>
+  <si>
+    <t>KR_6549672240</t>
+  </si>
+  <si>
+    <t>KR_6606814497</t>
+  </si>
+  <si>
+    <t>KR_6680202700</t>
+  </si>
+  <si>
+    <t>KR_6562544040</t>
+  </si>
+  <si>
+    <t>KR_6568721553</t>
+  </si>
+  <si>
+    <t>KR_6651429136</t>
+  </si>
+  <si>
+    <t>KR_6613216264</t>
+  </si>
+  <si>
+    <t>KR_6292975461</t>
+  </si>
+  <si>
+    <t>KR_6647256378</t>
+  </si>
+  <si>
+    <t>KR_6613176744</t>
+  </si>
+  <si>
+    <t>KR_6579848427</t>
+  </si>
+  <si>
+    <t>KR_6627413270</t>
+  </si>
+  <si>
+    <t>KR_6664493130</t>
+  </si>
+  <si>
+    <t>KR_6587907251</t>
+  </si>
+  <si>
+    <t>KR_6590661062</t>
+  </si>
+  <si>
+    <t>KR_6647239610</t>
+  </si>
+  <si>
+    <t>KR_6533313485</t>
+  </si>
+  <si>
+    <t>KR_6612345107</t>
+  </si>
+  <si>
+    <t>KR_6657979770</t>
+  </si>
+  <si>
+    <t>KR_6622029755</t>
+  </si>
+  <si>
+    <t>KR_6652486937</t>
+  </si>
+  <si>
+    <t>KR_6623973606</t>
+  </si>
+  <si>
+    <t>KR_6664044375</t>
+  </si>
+  <si>
+    <t>KR_6659283267</t>
+  </si>
+  <si>
+    <t>KR_6549681406</t>
+  </si>
+  <si>
+    <t>KR_6607340598</t>
+  </si>
+  <si>
+    <t>KR_6680247604</t>
+  </si>
+  <si>
+    <t>KR_6562587759</t>
+  </si>
+  <si>
+    <t>KR_6568801782</t>
+  </si>
+  <si>
+    <t>KR_6651459495</t>
+  </si>
+  <si>
+    <t>KR_6613225411</t>
+  </si>
+  <si>
+    <t>KR_6303736538</t>
+  </si>
+  <si>
+    <t>KR_6648025208</t>
+  </si>
+  <si>
+    <t>KR_6613191823</t>
+  </si>
+  <si>
+    <t>KR_6579887720</t>
+  </si>
+  <si>
+    <t>KR_6627466755</t>
+  </si>
+  <si>
+    <t>KR_6664571509</t>
+  </si>
+  <si>
+    <t>KR_6588012411</t>
+  </si>
+  <si>
+    <t>KR_6590692967</t>
+  </si>
+  <si>
+    <t>KR_6647517533</t>
+  </si>
+  <si>
+    <t>KR_6533361058</t>
+  </si>
+  <si>
+    <t>KR_6612461587</t>
+  </si>
+  <si>
+    <t>KR_6659633237</t>
+  </si>
+  <si>
+    <t>KR_6622143949</t>
+  </si>
+  <si>
+    <t>KR_6652755462</t>
+  </si>
+  <si>
+    <t>KR_6624290079</t>
+  </si>
+  <si>
+    <t>KR_6666840236</t>
+  </si>
+  <si>
+    <t>KR_6659322054</t>
+  </si>
+  <si>
+    <t>KR_6549688379</t>
+  </si>
+  <si>
+    <t>KR_6607417675</t>
+  </si>
+  <si>
+    <t>KR_6681232052</t>
+  </si>
+  <si>
+    <t>KR_6563164290</t>
+  </si>
+  <si>
+    <t>KR_6568879247</t>
+  </si>
+  <si>
+    <t>KR_6651608289</t>
+  </si>
+  <si>
+    <t>KR_6615021843</t>
+  </si>
+  <si>
+    <t>KR_6303786481</t>
+  </si>
+  <si>
+    <t>KR_6648141056</t>
+  </si>
+  <si>
+    <t>KR_6613209307</t>
+  </si>
+  <si>
+    <t>KR_6579924280</t>
+  </si>
+  <si>
+    <t>KR_6627609800</t>
+  </si>
+  <si>
+    <t>KR_6664631306</t>
+  </si>
+  <si>
+    <t>KR_6588094381</t>
+  </si>
+  <si>
+    <t>KR_6594110180</t>
+  </si>
+  <si>
+    <t>KR_6647892457</t>
+  </si>
+  <si>
+    <t>KR_6535025935</t>
+  </si>
+  <si>
+    <t>KR_6615767522</t>
+  </si>
+  <si>
+    <t>KR_6661713312</t>
+  </si>
+  <si>
+    <t>KR_6622241465</t>
+  </si>
+  <si>
+    <t>KR_6652770663</t>
+  </si>
+  <si>
+    <t>KR_6624379039</t>
+  </si>
+  <si>
+    <t>KR_6666888820</t>
+  </si>
+  <si>
+    <t>KR_6659336663</t>
+  </si>
+  <si>
+    <t>KR_6549689796</t>
+  </si>
+  <si>
+    <t>KR_6607539413</t>
+  </si>
+  <si>
+    <t>KR_6681267338</t>
+  </si>
+  <si>
+    <t>KR_6566183643</t>
+  </si>
+  <si>
+    <t>KR_6570507729</t>
+  </si>
+  <si>
+    <t>KR_6651658373</t>
+  </si>
+  <si>
+    <t>KR_6615053056</t>
+  </si>
+  <si>
+    <t>KR_6311456070</t>
+  </si>
+  <si>
+    <t>KR_6648307049</t>
+  </si>
+  <si>
+    <t>KR_6613666680</t>
+  </si>
+  <si>
+    <t>KR_6579952531</t>
+  </si>
+  <si>
+    <t>KR_6627701436</t>
+  </si>
+  <si>
+    <t>KR_6664693487</t>
+  </si>
+  <si>
+    <t>KR_6590885677</t>
+  </si>
+  <si>
+    <t>KR_6594134609</t>
+  </si>
+  <si>
+    <t>KR_6647967353</t>
+  </si>
+  <si>
+    <t>KR_6535107242</t>
+  </si>
+  <si>
+    <t>KR_6615842025</t>
+  </si>
+  <si>
+    <t>KR_6663439486</t>
+  </si>
+  <si>
+    <t>KR_6623141962</t>
+  </si>
+  <si>
+    <t>KR_6652784956</t>
+  </si>
+  <si>
+    <t>KR_6624442133</t>
+  </si>
+  <si>
+    <t>KR_6667062688</t>
+  </si>
+  <si>
+    <t>KR_6659351415</t>
+  </si>
+  <si>
+    <t>KR_6595497208</t>
+  </si>
+  <si>
+    <t>KR_6607603522</t>
+  </si>
+  <si>
+    <t>KR_6681317385</t>
+  </si>
+  <si>
+    <t>KR_6568637327</t>
+  </si>
+  <si>
+    <t>KR_6570599405</t>
+  </si>
+  <si>
+    <t>KR_6651748837</t>
+  </si>
+  <si>
+    <t>KR_6615059538</t>
+  </si>
+  <si>
+    <t>KR_6311509839</t>
+  </si>
+  <si>
+    <t>KR_6649011856</t>
+  </si>
+  <si>
+    <t>KR_6613711678</t>
+  </si>
+  <si>
+    <t>KR_6579993619</t>
+  </si>
+  <si>
+    <t>KR_6627797754</t>
+  </si>
+  <si>
+    <t>KR_6665015115</t>
+  </si>
+  <si>
+    <t>KR_6590964223</t>
+  </si>
+  <si>
+    <t>KR_6594192459</t>
+  </si>
+  <si>
+    <t>KR_6649153206</t>
+  </si>
+  <si>
+    <t>KR_6536304162</t>
+  </si>
+  <si>
+    <t>KR_6615876426</t>
+  </si>
+  <si>
+    <t>KR_6663447901</t>
+  </si>
+  <si>
+    <t>KR_6623214264</t>
+  </si>
+  <si>
+    <t>KR_6652811546</t>
+  </si>
+  <si>
+    <t>KR_6624480871</t>
+  </si>
+  <si>
+    <t>KR_6667098846</t>
+  </si>
+  <si>
+    <t>KR_6659876186</t>
+  </si>
+  <si>
+    <t>KR_6597466848</t>
+  </si>
+  <si>
+    <t>KR_6607703499</t>
+  </si>
+  <si>
+    <t>KR_6681359843</t>
+  </si>
+  <si>
+    <t>KR_6568744453</t>
+  </si>
+  <si>
+    <t>KR_6570692131</t>
+  </si>
+  <si>
+    <t>KR_6651825134</t>
+  </si>
+  <si>
+    <t>KR_6615069604</t>
+  </si>
+  <si>
+    <t>KR_6311551638</t>
+  </si>
+  <si>
+    <t>KR_6649065547</t>
+  </si>
+  <si>
+    <t>KR_6613770067</t>
+  </si>
+  <si>
+    <t>KR_6580043107</t>
+  </si>
+  <si>
+    <t>KR_6627891826</t>
+  </si>
+  <si>
+    <t>KR_6665040080</t>
+  </si>
+  <si>
+    <t>KR_6591026651</t>
+  </si>
+  <si>
+    <t>KR_6594201806</t>
+  </si>
+  <si>
+    <t>KR_6649214824</t>
+  </si>
+  <si>
+    <t>KR_6536360563</t>
+  </si>
+  <si>
+    <t>KR_6615926749</t>
+  </si>
+  <si>
+    <t>KR_6663484237</t>
+  </si>
+  <si>
+    <t>KR_6626950902</t>
+  </si>
+  <si>
+    <t>KR_6652854733</t>
+  </si>
+  <si>
+    <t>KR_6625973763</t>
+  </si>
+  <si>
+    <t>KR_6667214060</t>
+  </si>
+  <si>
+    <t>KR_6659923271</t>
+  </si>
+  <si>
+    <t>KR_6597498488</t>
+  </si>
+  <si>
+    <t>KR_6607898972</t>
+  </si>
+  <si>
+    <t>KR_6681420330</t>
+  </si>
+  <si>
+    <t>KR_6572437459</t>
+  </si>
+  <si>
+    <t>KR_6570780548</t>
+  </si>
+  <si>
+    <t>KR_6651936458</t>
+  </si>
+  <si>
+    <t>KR_6617034482</t>
+  </si>
+  <si>
+    <t>KR_6312167127</t>
+  </si>
+  <si>
+    <t>KR_6649586066</t>
+  </si>
+  <si>
+    <t>KR_6613828084</t>
+  </si>
+  <si>
+    <t>KR_6580069953</t>
+  </si>
+  <si>
+    <t>KR_6627985428</t>
+  </si>
+  <si>
+    <t>KR_6665055900</t>
+  </si>
+  <si>
+    <t>KR_6591147054</t>
+  </si>
+  <si>
+    <t>KR_6594255472</t>
+  </si>
+  <si>
+    <t>KR_6649360295</t>
+  </si>
+  <si>
+    <t>KR_6536439299</t>
+  </si>
+  <si>
+    <t>KR_6616005412</t>
+  </si>
+  <si>
+    <t>KR_6663491760</t>
+  </si>
+  <si>
+    <t>KR_6626982177</t>
+  </si>
+  <si>
+    <t>KR_6652894448</t>
+  </si>
+  <si>
+    <t>KR_6626038023</t>
+  </si>
+  <si>
+    <t>KR_6667275166</t>
+  </si>
+  <si>
+    <t>KR_6659989924</t>
   </si>
   <si>
     <t>KR_6597517687</t>
   </si>
   <si>
-    <t>KR_6597383901</t>
-  </si>
-  <si>
-    <t>KR_6664985797</t>
-  </si>
-  <si>
-    <t>KR_6566183643</t>
-  </si>
-  <si>
-    <t>KR_6574611605</t>
-  </si>
-  <si>
-    <t>KR_6643645803</t>
-  </si>
-  <si>
-    <t>KR_6611273171</t>
-  </si>
-  <si>
-    <t>KR_6312167127</t>
-  </si>
-  <si>
-    <t>KR_6640592558</t>
-  </si>
-  <si>
-    <t>KR_6603693047</t>
+    <t>KR_6608030175</t>
+  </si>
+  <si>
+    <t>KR_6681494325</t>
+  </si>
+  <si>
+    <t>KR_6575672546</t>
+  </si>
+  <si>
+    <t>KR_6571284629</t>
+  </si>
+  <si>
+    <t>KR_6652007155</t>
+  </si>
+  <si>
+    <t>KR_6617062718</t>
+  </si>
+  <si>
+    <t>KR_6312267904</t>
+  </si>
+  <si>
+    <t>KR_6650275089</t>
+  </si>
+  <si>
+    <t>KR_6613911443</t>
   </si>
   <si>
     <t>KR_6580119467</t>
   </si>
   <si>
-    <t>KR_6626259578</t>
-  </si>
-  <si>
-    <t>KR_6655364983</t>
-  </si>
-  <si>
-    <t>KR_6582729886</t>
-  </si>
-  <si>
-    <t>KR_6594134609</t>
-  </si>
-  <si>
-    <t>KR_6643797390</t>
-  </si>
-  <si>
-    <t>KR_6533313485</t>
-  </si>
-  <si>
-    <t>KR_6612178600</t>
-  </si>
-  <si>
-    <t>KR_6659239639</t>
-  </si>
-  <si>
-    <t>KR_6622029755</t>
-  </si>
-  <si>
-    <t>KR_6652486937</t>
-  </si>
-  <si>
-    <t>KR_6532107034</t>
-  </si>
-  <si>
-    <t>KR_6626176054</t>
-  </si>
-  <si>
-    <t>KR_6656228346</t>
-  </si>
-  <si>
-    <t>KR_6651641733</t>
-  </si>
-  <si>
-    <t>KR_6597533457</t>
-  </si>
-  <si>
-    <t>KR_6597423923</t>
-  </si>
-  <si>
-    <t>KR_6665017736</t>
-  </si>
-  <si>
-    <t>KR_6568637327</t>
-  </si>
-  <si>
-    <t>KR_6598850042</t>
-  </si>
-  <si>
-    <t>KR_6644053216</t>
-  </si>
-  <si>
-    <t>KR_6611286387</t>
-  </si>
-  <si>
-    <t>KR_6312267904</t>
-  </si>
-  <si>
-    <t>KR_6642220942</t>
-  </si>
-  <si>
-    <t>KR_6603826793</t>
-  </si>
-  <si>
-    <t>KR_6580149468</t>
-  </si>
-  <si>
-    <t>KR_6626312655</t>
-  </si>
-  <si>
-    <t>KR_6655434924</t>
-  </si>
-  <si>
-    <t>KR_6582833568</t>
-  </si>
-  <si>
-    <t>KR_6594192459</t>
-  </si>
-  <si>
-    <t>KR_6643830070</t>
-  </si>
-  <si>
-    <t>KR_6533361058</t>
-  </si>
-  <si>
-    <t>KR_6612277661</t>
-  </si>
-  <si>
-    <t>KR_6659273495</t>
-  </si>
-  <si>
-    <t>KR_6622143949</t>
-  </si>
-  <si>
-    <t>KR_6652755462</t>
-  </si>
-  <si>
-    <t>KR_6532125986</t>
-  </si>
-  <si>
-    <t>KR_6626235450</t>
-  </si>
-  <si>
-    <t>KR_6656245832</t>
-  </si>
-  <si>
-    <t>KR_6651718581</t>
-  </si>
-  <si>
-    <t>KR_6597545311</t>
-  </si>
-  <si>
-    <t>KR_6597458443</t>
-  </si>
-  <si>
-    <t>KR_6665060147</t>
-  </si>
-  <si>
-    <t>KR_6568744453</t>
-  </si>
-  <si>
-    <t>KR_6598901712</t>
-  </si>
-  <si>
-    <t>KR_6644176053</t>
-  </si>
-  <si>
-    <t>KR_6611298094</t>
-  </si>
-  <si>
-    <t>KR_6316582615</t>
-  </si>
-  <si>
-    <t>KR_6642376433</t>
-  </si>
-  <si>
-    <t>KR_6603868606</t>
-  </si>
-  <si>
-    <t>KR_6580208666</t>
-  </si>
-  <si>
-    <t>KR_6626332920</t>
-  </si>
-  <si>
-    <t>KR_6655515420</t>
-  </si>
-  <si>
-    <t>KR_6582921857</t>
-  </si>
-  <si>
-    <t>KR_6594201806</t>
-  </si>
-  <si>
-    <t>KR_6643854652</t>
-  </si>
-  <si>
-    <t>KR_6535025935</t>
-  </si>
-  <si>
-    <t>KR_6612345107</t>
-  </si>
-  <si>
-    <t>KR_6659293479</t>
-  </si>
-  <si>
-    <t>KR_6622241465</t>
-  </si>
-  <si>
-    <t>KR_6652770663</t>
-  </si>
-  <si>
-    <t>KR_6532620540</t>
-  </si>
-  <si>
-    <t>KR_6635642133</t>
-  </si>
-  <si>
-    <t>KR_6656268203</t>
-  </si>
-  <si>
-    <t>KR_6656479499</t>
-  </si>
-  <si>
-    <t>KR_6599491392</t>
-  </si>
-  <si>
-    <t>KR_6600350874</t>
-  </si>
-  <si>
-    <t>KR_6665073852</t>
-  </si>
-  <si>
-    <t>KR_6572437459</t>
-  </si>
-  <si>
-    <t>KR_6604637117</t>
-  </si>
-  <si>
-    <t>KR_6644273750</t>
-  </si>
-  <si>
-    <t>KR_6611293739</t>
-  </si>
-  <si>
-    <t>KR_6316619264</t>
-  </si>
-  <si>
-    <t>KR_6642528895</t>
-  </si>
-  <si>
-    <t>KR_6604738385</t>
-  </si>
-  <si>
-    <t>KR_6580268858</t>
-  </si>
-  <si>
-    <t>KR_6626354841</t>
-  </si>
-  <si>
-    <t>KR_6655641305</t>
-  </si>
-  <si>
-    <t>KR_6585815568</t>
-  </si>
-  <si>
-    <t>KR_6594255472</t>
-  </si>
-  <si>
-    <t>KR_6643894233</t>
-  </si>
-  <si>
-    <t>KR_6535107242</t>
-  </si>
-  <si>
-    <t>KR_6612461587</t>
-  </si>
-  <si>
-    <t>KR_6659633237</t>
-  </si>
-  <si>
-    <t>KR_6623141962</t>
-  </si>
-  <si>
-    <t>KR_6652784956</t>
-  </si>
-  <si>
-    <t>KR_6532675253</t>
-  </si>
-  <si>
-    <t>KR_6635646669</t>
-  </si>
-  <si>
-    <t>KR_6656270914</t>
-  </si>
-  <si>
-    <t>KR_6656523375</t>
-  </si>
-  <si>
-    <t>KR_6599528440</t>
-  </si>
-  <si>
-    <t>KR_6600518396</t>
-  </si>
-  <si>
-    <t>KR_6665116347</t>
-  </si>
-  <si>
-    <t>KR_6575672546</t>
-  </si>
-  <si>
-    <t>KR_6604700058</t>
-  </si>
-  <si>
-    <t>KR_6645628791</t>
-  </si>
-  <si>
-    <t>KR_6613147937</t>
-  </si>
-  <si>
-    <t>KR_6316680442</t>
-  </si>
-  <si>
-    <t>KR_6643365779</t>
-  </si>
-  <si>
-    <t>KR_6604886472</t>
-  </si>
-  <si>
-    <t>KR_6580370734</t>
-  </si>
-  <si>
-    <t>KR_6626381505</t>
-  </si>
-  <si>
-    <t>KR_6655728667</t>
-  </si>
-  <si>
-    <t>KR_6585889484</t>
+    <t>KR_6628052611</t>
+  </si>
+  <si>
+    <t>KR_6665098797</t>
+  </si>
+  <si>
+    <t>KR_6591181823</t>
   </si>
   <si>
     <t>KR_6594330091</t>
   </si>
   <si>
-    <t>KR_6643928781</t>
-  </si>
-  <si>
-    <t>KR_6536304162</t>
-  </si>
-  <si>
-    <t>KR_6615767522</t>
-  </si>
-  <si>
-    <t>KR_6659656928</t>
-  </si>
-  <si>
-    <t>KR_6623214264</t>
-  </si>
-  <si>
-    <t>KR_6652811546</t>
-  </si>
-  <si>
-    <t>KR_6532728538</t>
-  </si>
-  <si>
-    <t>KR_6635664272</t>
-  </si>
-  <si>
-    <t>KR_6656299201</t>
-  </si>
-  <si>
-    <t>KR_6656551553</t>
-  </si>
-  <si>
-    <t>KR_6599565457</t>
-  </si>
-  <si>
-    <t>KR_6600652224</t>
-  </si>
-  <si>
-    <t>KR_6665137816</t>
-  </si>
-  <si>
-    <t>KR_6575757937</t>
-  </si>
-  <si>
-    <t>KR_6607917861</t>
-  </si>
-  <si>
-    <t>KR_6645672689</t>
-  </si>
-  <si>
-    <t>KR_6613182086</t>
-  </si>
-  <si>
-    <t>KR_6327254061</t>
-  </si>
-  <si>
-    <t>KR_6643443265</t>
-  </si>
-  <si>
-    <t>KR_6605591110</t>
-  </si>
-  <si>
-    <t>KR_6580469879</t>
-  </si>
-  <si>
-    <t>KR_6627203106</t>
-  </si>
-  <si>
-    <t>KR_6655831489</t>
-  </si>
-  <si>
-    <t>KR_6585949279</t>
-  </si>
-  <si>
-    <t>KR_6594365732</t>
-  </si>
-  <si>
-    <t>KR_6644147745</t>
-  </si>
-  <si>
-    <t>KR_6536360563</t>
-  </si>
-  <si>
-    <t>KR_6615842025</t>
-  </si>
-  <si>
-    <t>KR_6659686768</t>
-  </si>
-  <si>
-    <t>KR_6626950902</t>
-  </si>
-  <si>
-    <t>KR_6652854733</t>
-  </si>
-  <si>
-    <t>KR_6532763758</t>
-  </si>
-  <si>
-    <t>KR_6635676154</t>
-  </si>
-  <si>
-    <t>KR_6656316608</t>
-  </si>
-  <si>
-    <t>KR_6657320045</t>
-  </si>
-  <si>
-    <t>KR_6601445620</t>
-  </si>
-  <si>
-    <t>KR_6600673405</t>
-  </si>
-  <si>
-    <t>KR_6665165870</t>
-  </si>
-  <si>
-    <t>KR_6575846692</t>
-  </si>
-  <si>
-    <t>KR_6608049851</t>
-  </si>
-  <si>
-    <t>KR_6645738229</t>
-  </si>
-  <si>
-    <t>KR_6613189683</t>
-  </si>
-  <si>
-    <t>KR_6367170597</t>
-  </si>
-  <si>
-    <t>KR_6643997416</t>
-  </si>
-  <si>
-    <t>KR_6605626738</t>
-  </si>
-  <si>
-    <t>KR_6580619143</t>
-  </si>
-  <si>
-    <t>KR_6627327887</t>
-  </si>
-  <si>
-    <t>KR_6656925461</t>
-  </si>
-  <si>
-    <t>KR_6585995481</t>
-  </si>
-  <si>
-    <t>KR_6594457279</t>
-  </si>
-  <si>
-    <t>KR_6644770794</t>
-  </si>
-  <si>
-    <t>KR_6536439299</t>
-  </si>
-  <si>
-    <t>KR_6615876426</t>
-  </si>
-  <si>
-    <t>KR_6659722859</t>
-  </si>
-  <si>
-    <t>KR_6626982177</t>
-  </si>
-  <si>
-    <t>KR_6652894448</t>
-  </si>
-  <si>
-    <t>KR_6537272022</t>
-  </si>
-  <si>
-    <t>KR_6635779706</t>
-  </si>
-  <si>
-    <t>KR_6656343443</t>
-  </si>
-  <si>
-    <t>KR_6657512458</t>
-  </si>
-  <si>
-    <t>KR_6616309182</t>
-  </si>
-  <si>
-    <t>KR_6600690424</t>
-  </si>
-  <si>
-    <t>KR_6665199915</t>
-  </si>
-  <si>
-    <t>KR_6579050872</t>
-  </si>
-  <si>
-    <t>KR_6608149766</t>
-  </si>
-  <si>
-    <t>KR_6645834148</t>
-  </si>
-  <si>
-    <t>KR_6613199629</t>
-  </si>
-  <si>
-    <t>KR_6388804812</t>
-  </si>
-  <si>
-    <t>KR_6644093796</t>
-  </si>
-  <si>
-    <t>KR_6605695257</t>
-  </si>
-  <si>
-    <t>KR_6596774522</t>
-  </si>
-  <si>
-    <t>KR_6627380342</t>
-  </si>
-  <si>
-    <t>KR_6656997080</t>
-  </si>
-  <si>
-    <t>KR_6586048430</t>
-  </si>
-  <si>
-    <t>KR_6596301407</t>
-  </si>
-  <si>
-    <t>KR_6645644904</t>
+    <t>KR_6649446554</t>
   </si>
   <si>
     <t>KR_6536499583</t>
   </si>
   <si>
-    <t>KR_6615926749</t>
-  </si>
-  <si>
-    <t>KR_6659753112</t>
+    <t>KR_6616081401</t>
+  </si>
+  <si>
+    <t>KR_6663521641</t>
   </si>
   <si>
     <t>KR_6627028104</t>
   </si>
   <si>
     <t>KR_6652932830</t>
-  </si>
-  <si>
-    <t>KR_6537306114</t>
-  </si>
-  <si>
-    <t>KR_6635823372</t>
-  </si>
-  <si>
-    <t>KR_6656377096</t>
-  </si>
-  <si>
-    <t>KR_6657626230</t>
-  </si>
-  <si>
-    <t>KR_6616365537</t>
-  </si>
-  <si>
-    <t>KR_6603518349</t>
-  </si>
-  <si>
-    <t>KR_6665567475</t>
-  </si>
-  <si>
-    <t>KR_6579125571</t>
-  </si>
-  <si>
-    <t>KR_6608762738</t>
-  </si>
-  <si>
-    <t>KR_6645902831</t>
-  </si>
-  <si>
-    <t>KR_6613216264</t>
-  </si>
-  <si>
-    <t>KR_6398283399</t>
-  </si>
-  <si>
-    <t>KR_6644174294</t>
-  </si>
-  <si>
-    <t>KR_6605789399</t>
-  </si>
-  <si>
-    <t>KR_6596901901</t>
-  </si>
-  <si>
-    <t>KR_6627413270</t>
-  </si>
-  <si>
-    <t>KR_6657066966</t>
-  </si>
-  <si>
-    <t>KR_6586112005</t>
-  </si>
-  <si>
-    <t>KR_6596350379</t>
-  </si>
-  <si>
-    <t>KR_6645699299</t>
-  </si>
-  <si>
-    <t>KR_6536754021</t>
-  </si>
-  <si>
-    <t>KR_6616005412</t>
-  </si>
-  <si>
-    <t>KR_6659792244</t>
-  </si>
-  <si>
-    <t>KR_6627101149</t>
-  </si>
-  <si>
-    <t>KR_6654790310</t>
-  </si>
-  <si>
-    <t>KR_6538557339</t>
-  </si>
-  <si>
-    <t>KR_6635868924</t>
-  </si>
-  <si>
-    <t>KR_6656390997</t>
-  </si>
-  <si>
-    <t>KR_6658072186</t>
-  </si>
-  <si>
-    <t>KR_6641362367</t>
-  </si>
-  <si>
-    <t>KR_6603571667</t>
-  </si>
-  <si>
-    <t>KR_6665627855</t>
-  </si>
-  <si>
-    <t>KR_6579173068</t>
-  </si>
-  <si>
-    <t>KR_6608803664</t>
-  </si>
-  <si>
-    <t>KR_6646001285</t>
-  </si>
-  <si>
-    <t>KR_6613225411</t>
-  </si>
-  <si>
-    <t>KR_6398351512</t>
-  </si>
-  <si>
-    <t>KR_6644271562</t>
-  </si>
-  <si>
-    <t>KR_6605900518</t>
-  </si>
-  <si>
-    <t>KR_6624407680</t>
-  </si>
-  <si>
-    <t>KR_6627466755</t>
-  </si>
-  <si>
-    <t>KR_6657155081</t>
-  </si>
-  <si>
-    <t>KR_6587787460</t>
-  </si>
-  <si>
-    <t>KR_6596436131</t>
-  </si>
-  <si>
-    <t>KR_6645764481</t>
-  </si>
-  <si>
-    <t>KR_6540700023</t>
-  </si>
-  <si>
-    <t>KR_6616081401</t>
-  </si>
-  <si>
-    <t>KR_6659803949</t>
-  </si>
-  <si>
-    <t>KR_6627173999</t>
-  </si>
-  <si>
-    <t>KR_6654799469</t>
-  </si>
-  <si>
-    <t>KR_6538639669</t>
   </si>
 </sst>
 </file>
@@ -1386,31 +1356,31 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1424,34 +1394,34 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="M3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1465,34 +1435,34 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1506,34 +1476,34 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1547,34 +1517,34 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L6" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1588,34 +1558,34 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="M7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1629,34 +1599,34 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M8" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1670,34 +1640,34 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="M9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1711,34 +1681,34 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M10" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1752,34 +1722,34 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K11" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L11" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1793,34 +1763,34 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K12" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L12" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M12" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1834,34 +1804,34 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J13" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L13" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M13" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1875,34 +1845,34 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J14" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K14" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L14" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M14" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1916,34 +1886,34 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K15" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M15" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1957,34 +1927,34 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K16" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L16" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M16" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1998,34 +1968,34 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J17" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K17" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L17" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2039,34 +2009,34 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K18" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L18" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M18" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2080,34 +2050,34 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K19" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L19" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M19" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2121,34 +2091,34 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K20" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L20" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M20" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2162,34 +2132,34 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L21" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M21" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2203,34 +2173,34 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M22" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2244,34 +2214,34 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2285,34 +2255,34 @@
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M24" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2326,34 +2296,34 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H25" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2367,34 +2337,34 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M26" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/matchid_data.xlsx
+++ b/matchid_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="318">
   <si>
     <t>tier</t>
   </si>
@@ -292,6 +292,9 @@
     <t>KR_6650763917</t>
   </si>
   <si>
+    <t>KR_6525391402</t>
+  </si>
+  <si>
     <t>KR_6623836624</t>
   </si>
   <si>
@@ -364,6 +367,9 @@
     <t>KR_6652443964</t>
   </si>
   <si>
+    <t>KR_6531519533</t>
+  </si>
+  <si>
     <t>KR_6623904704</t>
   </si>
   <si>
@@ -436,6 +442,9 @@
     <t>KR_6652486937</t>
   </si>
   <si>
+    <t>KR_6531625161</t>
+  </si>
+  <si>
     <t>KR_6623973606</t>
   </si>
   <si>
@@ -508,6 +517,9 @@
     <t>KR_6652755462</t>
   </si>
   <si>
+    <t>KR_6531672863</t>
+  </si>
+  <si>
     <t>KR_6624290079</t>
   </si>
   <si>
@@ -580,6 +592,9 @@
     <t>KR_6652770663</t>
   </si>
   <si>
+    <t>KR_6532015594</t>
+  </si>
+  <si>
     <t>KR_6624379039</t>
   </si>
   <si>
@@ -652,6 +667,9 @@
     <t>KR_6652784956</t>
   </si>
   <si>
+    <t>KR_6532031969</t>
+  </si>
+  <si>
     <t>KR_6624442133</t>
   </si>
   <si>
@@ -724,6 +742,9 @@
     <t>KR_6652811546</t>
   </si>
   <si>
+    <t>KR_6532087238</t>
+  </si>
+  <si>
     <t>KR_6624480871</t>
   </si>
   <si>
@@ -796,6 +817,9 @@
     <t>KR_6652854733</t>
   </si>
   <si>
+    <t>KR_6532107034</t>
+  </si>
+  <si>
     <t>KR_6625973763</t>
   </si>
   <si>
@@ -868,6 +892,9 @@
     <t>KR_6652894448</t>
   </si>
   <si>
+    <t>KR_6532125986</t>
+  </si>
+  <si>
     <t>KR_6626038023</t>
   </si>
   <si>
@@ -938,6 +965,9 @@
   </si>
   <si>
     <t>KR_6652932830</t>
+  </si>
+  <si>
+    <t>KR_6532620540</t>
   </si>
 </sst>
 </file>
@@ -1356,31 +1386,31 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1394,34 +1424,34 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1435,34 +1465,34 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M4" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1476,34 +1506,34 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="L5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M5" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1517,34 +1547,34 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M6" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1558,34 +1588,34 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1599,34 +1629,34 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K8" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M8" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1640,34 +1670,34 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M9" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1681,34 +1711,34 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K10" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L10" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1722,34 +1752,34 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J11" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K11" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M11" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1763,34 +1793,34 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K12" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L12" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M12" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1804,34 +1834,34 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K13" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L13" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M13" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1845,34 +1875,34 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J14" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K14" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L14" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M14" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1886,34 +1916,34 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J15" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K15" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L15" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M15" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1927,34 +1957,34 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J16" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K16" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L16" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M16" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1968,34 +1998,34 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K17" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L17" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="M17" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2009,34 +2039,34 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K18" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L18" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M18" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2050,34 +2080,34 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K19" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L19" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M19" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2091,34 +2121,34 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K20" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L20" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M20" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2132,34 +2162,34 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K21" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L21" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M21" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2173,34 +2203,34 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M22" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2214,34 +2244,34 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M23" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2255,34 +2285,34 @@
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="M24" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2296,34 +2326,34 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M25" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2337,34 +2367,34 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/matchid_data.xlsx
+++ b/matchid_data.xlsx
@@ -229,13 +229,13 @@
     <t>KR_6659181463</t>
   </si>
   <si>
-    <t>KR_6544411741</t>
+    <t>KR_6535533494</t>
   </si>
   <si>
     <t>KR_6606714105</t>
   </si>
   <si>
-    <t>KR_6679804541</t>
+    <t>KR_6680129404</t>
   </si>
   <si>
     <t>KR_6561935466</t>
@@ -259,561 +259,561 @@
     <t>KR_6613148814</t>
   </si>
   <si>
+    <t>KR_6579358560</t>
+  </si>
+  <si>
+    <t>KR_6627203106</t>
+  </si>
+  <si>
+    <t>KR_6663189684</t>
+  </si>
+  <si>
+    <t>KR_6586112005</t>
+  </si>
+  <si>
+    <t>KR_6589237936</t>
+  </si>
+  <si>
+    <t>KR_6646551896</t>
+  </si>
+  <si>
+    <t>KR_6530971094</t>
+  </si>
+  <si>
+    <t>KR_6612178600</t>
+  </si>
+  <si>
+    <t>KR_6655663405</t>
+  </si>
+  <si>
+    <t>KR_6619883155</t>
+  </si>
+  <si>
+    <t>KR_6650763917</t>
+  </si>
+  <si>
+    <t>KR_6525391402</t>
+  </si>
+  <si>
+    <t>KR_6623836624</t>
+  </si>
+  <si>
+    <t>KR_6663918544</t>
+  </si>
+  <si>
+    <t>KR_6659210922</t>
+  </si>
+  <si>
+    <t>KR_6549657642</t>
+  </si>
+  <si>
+    <t>KR_6606740799</t>
+  </si>
+  <si>
+    <t>KR_6680202700</t>
+  </si>
+  <si>
+    <t>KR_6562474831</t>
+  </si>
+  <si>
+    <t>KR_6568665217</t>
+  </si>
+  <si>
+    <t>KR_6651359462</t>
+  </si>
+  <si>
+    <t>KR_6613199629</t>
+  </si>
+  <si>
+    <t>KR_6292127231</t>
+  </si>
+  <si>
+    <t>KR_6645843937</t>
+  </si>
+  <si>
+    <t>KR_6613173509</t>
+  </si>
+  <si>
     <t>KR_6579373584</t>
   </si>
   <si>
-    <t>KR_6627203106</t>
-  </si>
-  <si>
-    <t>KR_6663189684</t>
-  </si>
-  <si>
-    <t>KR_6586112005</t>
+    <t>KR_6627327887</t>
+  </si>
+  <si>
+    <t>KR_6664408072</t>
+  </si>
+  <si>
+    <t>KR_6587787460</t>
   </si>
   <si>
     <t>KR_6590547167</t>
   </si>
   <si>
-    <t>KR_6646551896</t>
-  </si>
-  <si>
-    <t>KR_6530971094</t>
-  </si>
-  <si>
-    <t>KR_6612178600</t>
-  </si>
-  <si>
-    <t>KR_6655663405</t>
+    <t>KR_6647113778</t>
+  </si>
+  <si>
+    <t>KR_6531259868</t>
+  </si>
+  <si>
+    <t>KR_6612277661</t>
+  </si>
+  <si>
+    <t>KR_6657947807</t>
   </si>
   <si>
     <t>KR_6621620820</t>
   </si>
   <si>
-    <t>KR_6650763917</t>
-  </si>
-  <si>
-    <t>KR_6525391402</t>
-  </si>
-  <si>
-    <t>KR_6623836624</t>
-  </si>
-  <si>
-    <t>KR_6663918544</t>
-  </si>
-  <si>
-    <t>KR_6659210922</t>
-  </si>
-  <si>
-    <t>KR_6549657642</t>
-  </si>
-  <si>
-    <t>KR_6606740799</t>
-  </si>
-  <si>
-    <t>KR_6680129404</t>
-  </si>
-  <si>
-    <t>KR_6562474831</t>
-  </si>
-  <si>
-    <t>KR_6568665217</t>
-  </si>
-  <si>
-    <t>KR_6651359462</t>
-  </si>
-  <si>
-    <t>KR_6613199629</t>
-  </si>
-  <si>
-    <t>KR_6292127231</t>
-  </si>
-  <si>
-    <t>KR_6645843937</t>
-  </si>
-  <si>
-    <t>KR_6613173509</t>
-  </si>
-  <si>
-    <t>KR_6579834631</t>
-  </si>
-  <si>
-    <t>KR_6627327887</t>
-  </si>
-  <si>
-    <t>KR_6664408072</t>
-  </si>
-  <si>
-    <t>KR_6587787460</t>
+    <t>KR_6652443964</t>
+  </si>
+  <si>
+    <t>KR_6531519533</t>
+  </si>
+  <si>
+    <t>KR_6623904704</t>
+  </si>
+  <si>
+    <t>KR_6663968631</t>
+  </si>
+  <si>
+    <t>KR_6659242994</t>
+  </si>
+  <si>
+    <t>KR_6549672240</t>
+  </si>
+  <si>
+    <t>KR_6606814497</t>
+  </si>
+  <si>
+    <t>KR_6680247604</t>
+  </si>
+  <si>
+    <t>KR_6562544040</t>
+  </si>
+  <si>
+    <t>KR_6568721553</t>
+  </si>
+  <si>
+    <t>KR_6651429136</t>
+  </si>
+  <si>
+    <t>KR_6613216264</t>
+  </si>
+  <si>
+    <t>KR_6292975461</t>
+  </si>
+  <si>
+    <t>KR_6647256378</t>
+  </si>
+  <si>
+    <t>KR_6613176744</t>
+  </si>
+  <si>
+    <t>KR_6579848427</t>
+  </si>
+  <si>
+    <t>KR_6627413270</t>
+  </si>
+  <si>
+    <t>KR_6664493130</t>
+  </si>
+  <si>
+    <t>KR_6587907251</t>
   </si>
   <si>
     <t>KR_6590603162</t>
   </si>
   <si>
-    <t>KR_6647113778</t>
-  </si>
-  <si>
-    <t>KR_6531259868</t>
-  </si>
-  <si>
-    <t>KR_6612277661</t>
-  </si>
-  <si>
-    <t>KR_6657947807</t>
+    <t>KR_6647239610</t>
+  </si>
+  <si>
+    <t>KR_6533313485</t>
+  </si>
+  <si>
+    <t>KR_6612345107</t>
+  </si>
+  <si>
+    <t>KR_6657979770</t>
   </si>
   <si>
     <t>KR_6621732910</t>
   </si>
   <si>
-    <t>KR_6652443964</t>
-  </si>
-  <si>
-    <t>KR_6531519533</t>
-  </si>
-  <si>
-    <t>KR_6623904704</t>
-  </si>
-  <si>
-    <t>KR_6663968631</t>
-  </si>
-  <si>
-    <t>KR_6659242994</t>
-  </si>
-  <si>
-    <t>KR_6549672240</t>
-  </si>
-  <si>
-    <t>KR_6606814497</t>
-  </si>
-  <si>
-    <t>KR_6680202700</t>
-  </si>
-  <si>
-    <t>KR_6562544040</t>
-  </si>
-  <si>
-    <t>KR_6568721553</t>
-  </si>
-  <si>
-    <t>KR_6651429136</t>
-  </si>
-  <si>
-    <t>KR_6613216264</t>
-  </si>
-  <si>
-    <t>KR_6292975461</t>
-  </si>
-  <si>
-    <t>KR_6647256378</t>
-  </si>
-  <si>
-    <t>KR_6613176744</t>
-  </si>
-  <si>
-    <t>KR_6579848427</t>
-  </si>
-  <si>
-    <t>KR_6627413270</t>
-  </si>
-  <si>
-    <t>KR_6664493130</t>
-  </si>
-  <si>
-    <t>KR_6587907251</t>
+    <t>KR_6652486937</t>
+  </si>
+  <si>
+    <t>KR_6531625161</t>
+  </si>
+  <si>
+    <t>KR_6623973606</t>
+  </si>
+  <si>
+    <t>KR_6664044375</t>
+  </si>
+  <si>
+    <t>KR_6659283267</t>
+  </si>
+  <si>
+    <t>KR_6549681406</t>
+  </si>
+  <si>
+    <t>KR_6607340598</t>
+  </si>
+  <si>
+    <t>KR_6681232052</t>
+  </si>
+  <si>
+    <t>KR_6562587759</t>
+  </si>
+  <si>
+    <t>KR_6568801782</t>
+  </si>
+  <si>
+    <t>KR_6651459495</t>
+  </si>
+  <si>
+    <t>KR_6613225411</t>
+  </si>
+  <si>
+    <t>KR_6303736538</t>
+  </si>
+  <si>
+    <t>KR_6648025208</t>
+  </si>
+  <si>
+    <t>KR_6613191823</t>
+  </si>
+  <si>
+    <t>KR_6579887720</t>
+  </si>
+  <si>
+    <t>KR_6627466755</t>
+  </si>
+  <si>
+    <t>KR_6664571509</t>
+  </si>
+  <si>
+    <t>KR_6588012411</t>
   </si>
   <si>
     <t>KR_6590661062</t>
   </si>
   <si>
-    <t>KR_6647239610</t>
-  </si>
-  <si>
-    <t>KR_6533313485</t>
-  </si>
-  <si>
-    <t>KR_6612345107</t>
-  </si>
-  <si>
-    <t>KR_6657979770</t>
+    <t>KR_6647517533</t>
+  </si>
+  <si>
+    <t>KR_6533361058</t>
+  </si>
+  <si>
+    <t>KR_6612461587</t>
+  </si>
+  <si>
+    <t>KR_6659633237</t>
   </si>
   <si>
     <t>KR_6622029755</t>
   </si>
   <si>
-    <t>KR_6652486937</t>
-  </si>
-  <si>
-    <t>KR_6531625161</t>
-  </si>
-  <si>
-    <t>KR_6623973606</t>
-  </si>
-  <si>
-    <t>KR_6664044375</t>
-  </si>
-  <si>
-    <t>KR_6659283267</t>
-  </si>
-  <si>
-    <t>KR_6549681406</t>
-  </si>
-  <si>
-    <t>KR_6607340598</t>
-  </si>
-  <si>
-    <t>KR_6680247604</t>
-  </si>
-  <si>
-    <t>KR_6562587759</t>
-  </si>
-  <si>
-    <t>KR_6568801782</t>
-  </si>
-  <si>
-    <t>KR_6651459495</t>
-  </si>
-  <si>
-    <t>KR_6613225411</t>
-  </si>
-  <si>
-    <t>KR_6303736538</t>
-  </si>
-  <si>
-    <t>KR_6648025208</t>
-  </si>
-  <si>
-    <t>KR_6613191823</t>
-  </si>
-  <si>
-    <t>KR_6579887720</t>
-  </si>
-  <si>
-    <t>KR_6627466755</t>
-  </si>
-  <si>
-    <t>KR_6664571509</t>
-  </si>
-  <si>
-    <t>KR_6588012411</t>
+    <t>KR_6652755462</t>
+  </si>
+  <si>
+    <t>KR_6531672863</t>
+  </si>
+  <si>
+    <t>KR_6624290079</t>
+  </si>
+  <si>
+    <t>KR_6666840236</t>
+  </si>
+  <si>
+    <t>KR_6659322054</t>
+  </si>
+  <si>
+    <t>KR_6549688379</t>
+  </si>
+  <si>
+    <t>KR_6607417675</t>
+  </si>
+  <si>
+    <t>KR_6681267338</t>
+  </si>
+  <si>
+    <t>KR_6563164290</t>
+  </si>
+  <si>
+    <t>KR_6568879247</t>
+  </si>
+  <si>
+    <t>KR_6651608289</t>
+  </si>
+  <si>
+    <t>KR_6615021843</t>
+  </si>
+  <si>
+    <t>KR_6303786481</t>
+  </si>
+  <si>
+    <t>KR_6648141056</t>
+  </si>
+  <si>
+    <t>KR_6613209307</t>
+  </si>
+  <si>
+    <t>KR_6579924280</t>
+  </si>
+  <si>
+    <t>KR_6627609800</t>
+  </si>
+  <si>
+    <t>KR_6664631306</t>
+  </si>
+  <si>
+    <t>KR_6588094381</t>
   </si>
   <si>
     <t>KR_6590692967</t>
   </si>
   <si>
-    <t>KR_6647517533</t>
-  </si>
-  <si>
-    <t>KR_6533361058</t>
-  </si>
-  <si>
-    <t>KR_6612461587</t>
-  </si>
-  <si>
-    <t>KR_6659633237</t>
+    <t>KR_6647892457</t>
+  </si>
+  <si>
+    <t>KR_6535025935</t>
+  </si>
+  <si>
+    <t>KR_6615767522</t>
+  </si>
+  <si>
+    <t>KR_6661713312</t>
   </si>
   <si>
     <t>KR_6622143949</t>
   </si>
   <si>
-    <t>KR_6652755462</t>
-  </si>
-  <si>
-    <t>KR_6531672863</t>
-  </si>
-  <si>
-    <t>KR_6624290079</t>
-  </si>
-  <si>
-    <t>KR_6666840236</t>
-  </si>
-  <si>
-    <t>KR_6659322054</t>
-  </si>
-  <si>
-    <t>KR_6549688379</t>
-  </si>
-  <si>
-    <t>KR_6607417675</t>
-  </si>
-  <si>
-    <t>KR_6681232052</t>
-  </si>
-  <si>
-    <t>KR_6563164290</t>
-  </si>
-  <si>
-    <t>KR_6568879247</t>
-  </si>
-  <si>
-    <t>KR_6651608289</t>
-  </si>
-  <si>
-    <t>KR_6615021843</t>
-  </si>
-  <si>
-    <t>KR_6303786481</t>
-  </si>
-  <si>
-    <t>KR_6648141056</t>
-  </si>
-  <si>
-    <t>KR_6613209307</t>
-  </si>
-  <si>
-    <t>KR_6579924280</t>
-  </si>
-  <si>
-    <t>KR_6627609800</t>
-  </si>
-  <si>
-    <t>KR_6664631306</t>
-  </si>
-  <si>
-    <t>KR_6588094381</t>
+    <t>KR_6652770663</t>
+  </si>
+  <si>
+    <t>KR_6532015594</t>
+  </si>
+  <si>
+    <t>KR_6624379039</t>
+  </si>
+  <si>
+    <t>KR_6666888820</t>
+  </si>
+  <si>
+    <t>KR_6659336663</t>
+  </si>
+  <si>
+    <t>KR_6549689796</t>
+  </si>
+  <si>
+    <t>KR_6607539413</t>
+  </si>
+  <si>
+    <t>KR_6681317385</t>
+  </si>
+  <si>
+    <t>KR_6566183643</t>
+  </si>
+  <si>
+    <t>KR_6570507729</t>
+  </si>
+  <si>
+    <t>KR_6651658373</t>
+  </si>
+  <si>
+    <t>KR_6615053056</t>
+  </si>
+  <si>
+    <t>KR_6311456070</t>
+  </si>
+  <si>
+    <t>KR_6648307049</t>
+  </si>
+  <si>
+    <t>KR_6613666680</t>
+  </si>
+  <si>
+    <t>KR_6579952531</t>
+  </si>
+  <si>
+    <t>KR_6627701436</t>
+  </si>
+  <si>
+    <t>KR_6664693487</t>
+  </si>
+  <si>
+    <t>KR_6590885677</t>
   </si>
   <si>
     <t>KR_6594110180</t>
   </si>
   <si>
-    <t>KR_6647892457</t>
-  </si>
-  <si>
-    <t>KR_6535025935</t>
-  </si>
-  <si>
-    <t>KR_6615767522</t>
-  </si>
-  <si>
-    <t>KR_6661713312</t>
+    <t>KR_6647967353</t>
+  </si>
+  <si>
+    <t>KR_6535107242</t>
+  </si>
+  <si>
+    <t>KR_6615842025</t>
+  </si>
+  <si>
+    <t>KR_6663439486</t>
   </si>
   <si>
     <t>KR_6622241465</t>
   </si>
   <si>
-    <t>KR_6652770663</t>
-  </si>
-  <si>
-    <t>KR_6532015594</t>
-  </si>
-  <si>
-    <t>KR_6624379039</t>
-  </si>
-  <si>
-    <t>KR_6666888820</t>
-  </si>
-  <si>
-    <t>KR_6659336663</t>
-  </si>
-  <si>
-    <t>KR_6549689796</t>
-  </si>
-  <si>
-    <t>KR_6607539413</t>
-  </si>
-  <si>
-    <t>KR_6681267338</t>
-  </si>
-  <si>
-    <t>KR_6566183643</t>
-  </si>
-  <si>
-    <t>KR_6570507729</t>
-  </si>
-  <si>
-    <t>KR_6651658373</t>
-  </si>
-  <si>
-    <t>KR_6615053056</t>
-  </si>
-  <si>
-    <t>KR_6311456070</t>
-  </si>
-  <si>
-    <t>KR_6648307049</t>
-  </si>
-  <si>
-    <t>KR_6613666680</t>
-  </si>
-  <si>
-    <t>KR_6579952531</t>
-  </si>
-  <si>
-    <t>KR_6627701436</t>
-  </si>
-  <si>
-    <t>KR_6664693487</t>
-  </si>
-  <si>
-    <t>KR_6590885677</t>
+    <t>KR_6652784956</t>
+  </si>
+  <si>
+    <t>KR_6532031969</t>
+  </si>
+  <si>
+    <t>KR_6624442133</t>
+  </si>
+  <si>
+    <t>KR_6667062688</t>
+  </si>
+  <si>
+    <t>KR_6659351415</t>
+  </si>
+  <si>
+    <t>KR_6595497208</t>
+  </si>
+  <si>
+    <t>KR_6607603522</t>
+  </si>
+  <si>
+    <t>KR_6681359843</t>
+  </si>
+  <si>
+    <t>KR_6568637327</t>
+  </si>
+  <si>
+    <t>KR_6570599405</t>
+  </si>
+  <si>
+    <t>KR_6651748837</t>
+  </si>
+  <si>
+    <t>KR_6615059538</t>
+  </si>
+  <si>
+    <t>KR_6311509839</t>
+  </si>
+  <si>
+    <t>KR_6649011856</t>
+  </si>
+  <si>
+    <t>KR_6613711678</t>
+  </si>
+  <si>
+    <t>KR_6579993619</t>
+  </si>
+  <si>
+    <t>KR_6627797754</t>
+  </si>
+  <si>
+    <t>KR_6665015115</t>
+  </si>
+  <si>
+    <t>KR_6590964223</t>
   </si>
   <si>
     <t>KR_6594134609</t>
   </si>
   <si>
-    <t>KR_6647967353</t>
-  </si>
-  <si>
-    <t>KR_6535107242</t>
-  </si>
-  <si>
-    <t>KR_6615842025</t>
-  </si>
-  <si>
-    <t>KR_6663439486</t>
+    <t>KR_6649153206</t>
+  </si>
+  <si>
+    <t>KR_6536304162</t>
+  </si>
+  <si>
+    <t>KR_6615876426</t>
+  </si>
+  <si>
+    <t>KR_6663447901</t>
   </si>
   <si>
     <t>KR_6623141962</t>
   </si>
   <si>
-    <t>KR_6652784956</t>
-  </si>
-  <si>
-    <t>KR_6532031969</t>
-  </si>
-  <si>
-    <t>KR_6624442133</t>
-  </si>
-  <si>
-    <t>KR_6667062688</t>
-  </si>
-  <si>
-    <t>KR_6659351415</t>
-  </si>
-  <si>
-    <t>KR_6595497208</t>
-  </si>
-  <si>
-    <t>KR_6607603522</t>
-  </si>
-  <si>
-    <t>KR_6681317385</t>
-  </si>
-  <si>
-    <t>KR_6568637327</t>
-  </si>
-  <si>
-    <t>KR_6570599405</t>
-  </si>
-  <si>
-    <t>KR_6651748837</t>
-  </si>
-  <si>
-    <t>KR_6615059538</t>
-  </si>
-  <si>
-    <t>KR_6311509839</t>
-  </si>
-  <si>
-    <t>KR_6649011856</t>
-  </si>
-  <si>
-    <t>KR_6613711678</t>
-  </si>
-  <si>
-    <t>KR_6579993619</t>
-  </si>
-  <si>
-    <t>KR_6627797754</t>
-  </si>
-  <si>
-    <t>KR_6665015115</t>
-  </si>
-  <si>
-    <t>KR_6590964223</t>
-  </si>
-  <si>
-    <t>KR_6594192459</t>
-  </si>
-  <si>
-    <t>KR_6649153206</t>
-  </si>
-  <si>
-    <t>KR_6536304162</t>
-  </si>
-  <si>
-    <t>KR_6615876426</t>
-  </si>
-  <si>
-    <t>KR_6663447901</t>
+    <t>KR_6652811546</t>
+  </si>
+  <si>
+    <t>KR_6532087238</t>
+  </si>
+  <si>
+    <t>KR_6624480871</t>
+  </si>
+  <si>
+    <t>KR_6667098846</t>
+  </si>
+  <si>
+    <t>KR_6659876186</t>
+  </si>
+  <si>
+    <t>KR_6597466848</t>
+  </si>
+  <si>
+    <t>KR_6607703499</t>
+  </si>
+  <si>
+    <t>KR_6681420330</t>
+  </si>
+  <si>
+    <t>KR_6568744453</t>
+  </si>
+  <si>
+    <t>KR_6570692131</t>
+  </si>
+  <si>
+    <t>KR_6651825134</t>
+  </si>
+  <si>
+    <t>KR_6615069604</t>
+  </si>
+  <si>
+    <t>KR_6311551638</t>
+  </si>
+  <si>
+    <t>KR_6649065547</t>
+  </si>
+  <si>
+    <t>KR_6613770067</t>
+  </si>
+  <si>
+    <t>KR_6580043107</t>
+  </si>
+  <si>
+    <t>KR_6627891826</t>
+  </si>
+  <si>
+    <t>KR_6665040080</t>
+  </si>
+  <si>
+    <t>KR_6591026651</t>
+  </si>
+  <si>
+    <t>KR_6594201806</t>
+  </si>
+  <si>
+    <t>KR_6649214824</t>
+  </si>
+  <si>
+    <t>KR_6536360563</t>
+  </si>
+  <si>
+    <t>KR_6615926749</t>
+  </si>
+  <si>
+    <t>KR_6663484237</t>
   </si>
   <si>
     <t>KR_6623214264</t>
   </si>
   <si>
-    <t>KR_6652811546</t>
-  </si>
-  <si>
-    <t>KR_6532087238</t>
-  </si>
-  <si>
-    <t>KR_6624480871</t>
-  </si>
-  <si>
-    <t>KR_6667098846</t>
-  </si>
-  <si>
-    <t>KR_6659876186</t>
-  </si>
-  <si>
-    <t>KR_6597466848</t>
-  </si>
-  <si>
-    <t>KR_6607703499</t>
-  </si>
-  <si>
-    <t>KR_6681359843</t>
-  </si>
-  <si>
-    <t>KR_6568744453</t>
-  </si>
-  <si>
-    <t>KR_6570692131</t>
-  </si>
-  <si>
-    <t>KR_6651825134</t>
-  </si>
-  <si>
-    <t>KR_6615069604</t>
-  </si>
-  <si>
-    <t>KR_6311551638</t>
-  </si>
-  <si>
-    <t>KR_6649065547</t>
-  </si>
-  <si>
-    <t>KR_6613770067</t>
-  </si>
-  <si>
-    <t>KR_6580043107</t>
-  </si>
-  <si>
-    <t>KR_6627891826</t>
-  </si>
-  <si>
-    <t>KR_6665040080</t>
-  </si>
-  <si>
-    <t>KR_6591026651</t>
-  </si>
-  <si>
-    <t>KR_6594201806</t>
-  </si>
-  <si>
-    <t>KR_6649214824</t>
-  </si>
-  <si>
-    <t>KR_6536360563</t>
-  </si>
-  <si>
-    <t>KR_6615926749</t>
-  </si>
-  <si>
-    <t>KR_6663484237</t>
-  </si>
-  <si>
-    <t>KR_6626950902</t>
-  </si>
-  <si>
     <t>KR_6652854733</t>
   </si>
   <si>
@@ -835,7 +835,7 @@
     <t>KR_6607898972</t>
   </si>
   <si>
-    <t>KR_6681420330</t>
+    <t>KR_6681494325</t>
   </si>
   <si>
     <t>KR_6572437459</t>
@@ -910,7 +910,7 @@
     <t>KR_6608030175</t>
   </si>
   <si>
-    <t>KR_6681494325</t>
+    <t>KR_6681574571</t>
   </si>
   <si>
     <t>KR_6575672546</t>
